--- a/Output_Backtest/Garlappi_Robust_cumulative_returns.xlsx
+++ b/Output_Backtest/Garlappi_Robust_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>1.009824188226719</v>
+        <v>1.009824093515068</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9830895615285792</v>
+        <v>0.983089349981372</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9255454301832672</v>
+        <v>0.9255452947255068</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9205891068233197</v>
+        <v>0.9205888822068214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.984750438401387</v>
+        <v>0.9847502131787765</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9755413789773386</v>
+        <v>0.9755409163743625</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>0.999050251184339</v>
+        <v>0.9990499075560306</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.010706673605699</v>
+        <v>1.010706514943104</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.056001467373096</v>
+        <v>1.05600147910263</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.044160504089432</v>
+        <v>1.044160248925433</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.040634885892095</v>
+        <v>1.04063485990305</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.002681812777326</v>
+        <v>1.002681829493844</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9779391839661228</v>
+        <v>0.9779391293448548</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.999880071240593</v>
+        <v>0.999880064456745</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.013186250977184</v>
+        <v>1.013186177527519</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.04581842212993</v>
+        <v>1.045818082048638</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.044440336420188</v>
+        <v>1.044440002263033</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.057805261061436</v>
+        <v>1.057805063075681</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.068734079503042</v>
+        <v>1.068734197907377</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.073430566082215</v>
+        <v>1.073430608632517</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.098390721268709</v>
+        <v>1.098390483749332</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.098439968534311</v>
+        <v>1.098439947492179</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.132054060701138</v>
+        <v>1.132053841694027</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.148836796257606</v>
+        <v>1.148836709675288</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.180819126785713</v>
+        <v>1.180819019250317</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.180473872380973</v>
+        <v>1.180473872562102</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.246022217327187</v>
+        <v>1.246022099832254</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.211005203488324</v>
+        <v>1.211005081352351</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.189544826222055</v>
+        <v>1.189544858698059</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.17493245258337</v>
+        <v>1.174932297536656</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.22136075731416</v>
+        <v>1.221360938935652</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.231602202553263</v>
+        <v>1.23160242138345</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.270848592116289</v>
+        <v>1.270848847389946</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.305400109444522</v>
+        <v>1.305400171021213</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.288373408747384</v>
+        <v>1.288373108752659</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.273071546715492</v>
+        <v>1.273071297806249</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.277216348589928</v>
+        <v>1.277216103182562</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.195792678711982</v>
+        <v>1.195792706147085</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.341308285450904</v>
+        <v>1.341308203785459</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.334459864348969</v>
+        <v>1.334459773600408</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.314795974097428</v>
+        <v>1.314795894864046</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.351294132637359</v>
+        <v>1.351294139853558</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.280610261920193</v>
+        <v>1.2806104791632</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.369085590076071</v>
+        <v>1.369086049029605</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.39451344309134</v>
+        <v>1.394513712328267</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.343856791030058</v>
+        <v>1.343857285565331</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.367357261123014</v>
+        <v>1.367357469316664</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.416004795039576</v>
+        <v>1.416005185169952</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.462851678807552</v>
+        <v>1.462852013930354</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.524392138377191</v>
+        <v>1.524392366508613</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.502117302087057</v>
+        <v>1.502117399776731</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.389286498356982</v>
+        <v>1.389286751703898</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.334347835662072</v>
+        <v>1.334347935842284</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.420808076933085</v>
+        <v>1.42080851291647</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.461584393187942</v>
+        <v>1.461584850178706</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.503631372379453</v>
+        <v>1.503632056429218</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.610287770741431</v>
+        <v>1.61028855466843</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.648976360742012</v>
+        <v>1.648976784488549</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.574711349878193</v>
+        <v>1.574711810020349</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.540218286289828</v>
+        <v>1.540218599423848</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.605415062041597</v>
+        <v>1.605415496078168</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.678385597848873</v>
+        <v>1.678386099493172</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.657974664037209</v>
+        <v>1.657974994661329</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.720512332756898</v>
+        <v>1.720512399978979</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.773785975373692</v>
+        <v>1.773786346942938</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.860048979764479</v>
+        <v>1.860049314940166</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.858567484880443</v>
+        <v>1.858567989573406</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.928031547803769</v>
+        <v>1.928031755688561</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.888398782536736</v>
+        <v>1.888399013098723</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.948023059339303</v>
+        <v>1.948023346258103</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.847299910848372</v>
+        <v>1.847299909499279</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.958848920026429</v>
+        <v>1.95884895869205</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.926854291547379</v>
+        <v>1.926854444423955</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.970405388603905</v>
+        <v>1.97040561415581</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.849852315507421</v>
+        <v>1.849852466392117</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.781954509602094</v>
+        <v>1.78195464526583</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.85080691048076</v>
+        <v>1.85080703013616</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.680642417446767</v>
+        <v>1.680642613470398</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.6833859442005</v>
+        <v>1.683386228210511</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.538675179733237</v>
+        <v>1.538675666968316</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.65057825538294</v>
+        <v>1.650579555125855</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.552864912783314</v>
+        <v>1.552866142346558</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.352887716254787</v>
+        <v>1.352888774750697</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.465094926139027</v>
+        <v>1.465095860096323</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.506901769772735</v>
+        <v>1.506902757265883</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.418621371111653</v>
+        <v>1.41862250515793</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.514373913310186</v>
+        <v>1.514375398029043</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.480406404131328</v>
+        <v>1.480407816292149</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.486807898762667</v>
+        <v>1.486809343233648</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.48581332349344</v>
+        <v>1.485814732655964</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.478425906785683</v>
+        <v>1.478427515537054</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.575438631633546</v>
+        <v>1.575440339404702</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.688115617802912</v>
+        <v>1.688117463508935</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.668836622445511</v>
+        <v>1.66883848450235</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.654209925432936</v>
+        <v>1.654211638310639</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.58347607289622</v>
+        <v>1.583477752476574</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.685774308418795</v>
+        <v>1.68577615088847</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.729119548213507</v>
+        <v>1.729121407284102</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.7692699279368</v>
+        <v>1.769271829639809</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.843758008856577</v>
+        <v>1.843759954994885</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.895967815853473</v>
+        <v>1.895969852382402</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.841444053434228</v>
+        <v>1.841446041983997</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.867609079983135</v>
+        <v>1.867611095234615</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.964296804766255</v>
+        <v>1.964299003666001</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.964270438392816</v>
+        <v>1.964272607565569</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.961453030771234</v>
+        <v>1.961455195595168</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.975957683753367</v>
+        <v>1.975959864585851</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>2.021345758685629</v>
+        <v>2.021347989612197</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.965285837294462</v>
+        <v>1.965288006348603</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Garlappi_Robust_cumulative_returns.xlsx
+++ b/Output_Backtest/Garlappi_Robust_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>1.009824093515068</v>
+        <v>1.009824024986284</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.983089349981372</v>
+        <v>0.9830894846183491</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9255452947255068</v>
+        <v>0.9255452511882347</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9205888822068214</v>
+        <v>0.920588801192828</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9847502131787765</v>
+        <v>0.9847501539710722</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9755409163743625</v>
+        <v>0.9755410315554607</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>0.9990499075560306</v>
+        <v>0.9990500113376314</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.010706514943104</v>
+        <v>1.010706635425402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.05600147910263</v>
+        <v>1.056001643280036</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.044160248925433</v>
+        <v>1.044160492790957</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.04063485990305</v>
+        <v>1.040635145647898</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.002681829493844</v>
+        <v>1.002681834829943</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9779391293448548</v>
+        <v>0.9779391233888566</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.999880064456745</v>
+        <v>0.9998802022434761</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.013186177527519</v>
+        <v>1.013186203537723</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.045818082048638</v>
+        <v>1.045818266209844</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.044440002263033</v>
+        <v>1.044440234095516</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.057805063075681</v>
+        <v>1.057805265960124</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.068734197907377</v>
+        <v>1.068734400449171</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.073430608632517</v>
+        <v>1.073430755564875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.098390483749332</v>
+        <v>1.098390805558009</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.098439947492179</v>
+        <v>1.098440226842181</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.132053841694027</v>
+        <v>1.132054135269085</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.148836709675288</v>
+        <v>1.148836763651993</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.180819019250317</v>
+        <v>1.180819038755482</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.180473872562102</v>
+        <v>1.180473784400467</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.246022099832254</v>
+        <v>1.246022252966097</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.211005081352351</v>
+        <v>1.2110052844471</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.189544858698059</v>
+        <v>1.189544940693857</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.174932297536656</v>
+        <v>1.174932575205073</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.221360938935652</v>
+        <v>1.221360309583668</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.23160242138345</v>
+        <v>1.231602323533476</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.270848847389946</v>
+        <v>1.27084855647951</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.305400171021213</v>
+        <v>1.305399571159817</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.288373108752659</v>
+        <v>1.288372680423065</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.273071297806249</v>
+        <v>1.273070664680628</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.277216103182562</v>
+        <v>1.277215559792432</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.195792706147085</v>
+        <v>1.195791879226583</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.341308203785459</v>
+        <v>1.34130747522488</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.334459773600408</v>
+        <v>1.334459043269734</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.314795894864046</v>
+        <v>1.31479532967298</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.351294139853558</v>
+        <v>1.351293572675008</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.2806104791632</v>
+        <v>1.280609986364196</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.369086049029605</v>
+        <v>1.369085473434434</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.394513712328267</v>
+        <v>1.394513206970636</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.343857285565331</v>
+        <v>1.34385672143411</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.367357469316664</v>
+        <v>1.367357031163703</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.416005185169952</v>
+        <v>1.416004631150582</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.462852013930354</v>
+        <v>1.462851515391614</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.524392366508613</v>
+        <v>1.524392115161485</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.502117399776731</v>
+        <v>1.502117010084082</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.389286751703898</v>
+        <v>1.389286187264319</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.334347935842284</v>
+        <v>1.334347573880283</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.42080851291647</v>
+        <v>1.420807669502946</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.461584850178706</v>
+        <v>1.461583888036416</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.503632056429218</v>
+        <v>1.503631057169394</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.61028855466843</v>
+        <v>1.610287402482289</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.648976784488549</v>
+        <v>1.648975863032543</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.574711810020349</v>
+        <v>1.574711080385659</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.540218599423848</v>
+        <v>1.540218004695536</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.605415496078168</v>
+        <v>1.605414492426418</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.678386099493172</v>
+        <v>1.678384721651144</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.657974994661329</v>
+        <v>1.657973745974456</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.720512399978979</v>
+        <v>1.720511327340597</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.773786346942938</v>
+        <v>1.773784942745257</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.860049314940166</v>
+        <v>1.860047949368585</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.858567989573406</v>
+        <v>1.858566600595464</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.928031755688561</v>
+        <v>1.928030394856886</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.888399013098723</v>
+        <v>1.888397806033151</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.948023346258103</v>
+        <v>1.948021876728249</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.847299909499279</v>
+        <v>1.847298499872158</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.95884895869205</v>
+        <v>1.95884737612248</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.926854444423955</v>
+        <v>1.926852785225489</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.97040561415581</v>
+        <v>1.970404164261664</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.849852466392117</v>
+        <v>1.849851041634932</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.78195464526583</v>
+        <v>1.781953244962371</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.85080703013616</v>
+        <v>1.85080544959625</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.680642613470398</v>
+        <v>1.680641197733001</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.683386228210511</v>
+        <v>1.683384809380344</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.538675666968316</v>
+        <v>1.538674261351484</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.650579555125855</v>
+        <v>1.650577456891809</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.552866142346558</v>
+        <v>1.552864004105923</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.352888774750697</v>
+        <v>1.352886852310925</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.465095860096323</v>
+        <v>1.465093719368018</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.506902757265883</v>
+        <v>1.506900697748078</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.41862250515793</v>
+        <v>1.418620422655049</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.514375398029043</v>
+        <v>1.514372990916088</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.480407816292149</v>
+        <v>1.480405524392971</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.486809343233648</v>
+        <v>1.486806970412332</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.485814732655964</v>
+        <v>1.485812384231968</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.478427515537054</v>
+        <v>1.478425275448156</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.575440339404702</v>
+        <v>1.575438245447853</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.688117463508935</v>
+        <v>1.688115142875714</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.66883848450235</v>
+        <v>1.668836083571674</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.654211638310639</v>
+        <v>1.654209484573149</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.583477752476574</v>
+        <v>1.583475653562552</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.68577615088847</v>
+        <v>1.685773903595778</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.729121407284102</v>
+        <v>1.729119102208246</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.769271829639809</v>
+        <v>1.769269471039794</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.843759954994885</v>
+        <v>1.843757463234244</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.895969852382402</v>
+        <v>1.895967277469159</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.841446041983997</v>
+        <v>1.84144351687702</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.867611095234615</v>
+        <v>1.86760853542706</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.964299003666001</v>
+        <v>1.964296329645431</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.964272607565569</v>
+        <v>1.96426990830762</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.961455195595168</v>
+        <v>1.961452498992116</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.975959864585851</v>
+        <v>1.975957148041822</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>2.021347989612197</v>
+        <v>2.021345210668701</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.965288006348603</v>
+        <v>1.99996212917514</v>
       </c>
     </row>
   </sheetData>
